--- a/nmadb/501229.xlsx
+++ b/nmadb/501229.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lab\Dropbox\Network Meta-Analyses of  2013\NMA 2013\With outcome data available (28)\Continuous (7)\Arm level (3)\Myrsini\Chilton\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -16,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -92,14 +87,14 @@
     <t xml:space="preserve">Turker 2006 </t>
   </si>
   <si>
-    <t>mean</t>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,7 +140,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Κανονικό" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -161,7 +156,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Θέμα του Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -203,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -235,10 +230,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -270,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,21 +439,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="3" customWidth="1"/>
     <col min="2" max="2" width="7.28515625" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -483,7 +476,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -503,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -523,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -543,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -563,7 +556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -583,7 +576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
@@ -607,7 +600,7 @@
       </c>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>14</v>
       </c>
@@ -633,7 +626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
@@ -659,7 +652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -685,7 +678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
@@ -711,7 +704,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -738,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -765,7 +758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -788,7 +781,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="3" t="s">
         <v>18</v>
       </c>
@@ -811,7 +804,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="3" t="s">
         <v>18</v>
       </c>
@@ -834,7 +827,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
         <v>19</v>
       </c>
@@ -857,7 +850,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -880,7 +873,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -903,7 +896,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
@@ -926,7 +919,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
@@ -949,7 +942,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
@@ -972,7 +965,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
         <v>22</v>
       </c>
@@ -995,7 +988,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1028,24 +1021,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
